--- a/BackTest/2020-01-19 BackTest EOS.xlsx
+++ b/BackTest/2020-01-19 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>46504.18980581999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>57404.69240581999</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>55316.15350582</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>58365.49950581999</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>50923.88900581999</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>46699.55510581999</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>48976.89130581999</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>61908.21289236999</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>54074.18969237</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>39520.36409237</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>64267.06359236999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>64267.06359236999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>58066.46559236999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>50458.65669236999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>46741.04999236999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>54013.02379236999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>54013.02379236999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>57077.00939236999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>50182.80589236999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>58132.77169236998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>57622.29339236998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>52988.63238368998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>57141.37218368999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>57141.37218368999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>60608.21208368998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>53886.41028368998</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>54479.78608368999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>49346.72288368999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>49346.72288368999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>94243.83139915997</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>92248.85169915998</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>138368.63459916</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>155756.28669916</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>193364.54124877</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>196114.36914877</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>197209.91784877</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>204740.80244877</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>203823.66464877</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>191568.70564877</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>187906.94264877</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>178344.89944877</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>177341.20794877</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>175237.76274877</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>175860.14564877</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>176741.31474877</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>176221.95684877</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>175663.14434877</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>182615.01294877</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>179633.69634877</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>176965.22304877</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>171345.44134877</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>174218.36414877</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>175058.05254877</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>174996.16904877</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>176776.75334877</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>178423.69604877</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>179742.69654877</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>187647.75204877</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>188522.85404877</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>186850.34964877</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>188951.25329231</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>189988.93326332</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>188182.17566332</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>186440.84376332</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>187111.15506332</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>186870.63506332</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>185010.00826332</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>183676.50526332</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>178145.24126332</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>178818.34506332</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>180412.45876332</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>176869.32066332</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>176984.67386332</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>175529.11006332</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>174455.73866332</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>151170.22226332</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>119633.19428491</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>145900.7993065</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>123984.7962065</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>104186.0127065</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>115690.7756065</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>94878.2262065</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>83533.47124593999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>61851.71575040999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>74194.07735040999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>58393.84865040999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>59059.30655040999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>56914.26175040999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>51259.20995040999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>58360.95335040999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>60474.16978490999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>67448.35648490999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>59610.54328491</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>61761.42838491</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>65373.94059298001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>61373.34309298001</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>56335.56719298001</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>58887.49329298001</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3114.608045579987</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-6110.062945579987</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>5276.82728682001</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>5427.298286820011</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>27148.32852769001</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>35120.88355033001</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>35120.88355033001</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>17107.98505033003</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>17107.98505033003</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>15461.73095033003</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>22275.60985033003</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>29217.85185258002</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>29336.73993843002</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>29336.73993843002</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>29336.73993843002</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>29285.22363843002</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>29547.35043843001</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>27898.67813843002</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>34445.54633843002</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>34445.54633843002</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>34528.99913843002</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>34388.02093843002</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>34326.07033843002</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>32467.34589097002</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>32776.38759097002</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26026,11 +26026,17 @@
         <v>-90372.55889344</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>4282</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26065,17 @@
         <v>-95877.81979343999</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>4281</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26104,17 @@
         <v>-153514.5570518</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>4263</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26147,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26184,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26221,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26258,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26291,17 @@
         <v>-115768.9438518</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>4284</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26330,17 @@
         <v>-112325.95193146</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>4293</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26369,17 @@
         <v>-116670.37853146</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>4305</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26408,17 @@
         <v>-119561.16803146</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>4290</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26447,17 @@
         <v>-117623.11303146</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>4285</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26486,17 @@
         <v>-131660.03024553</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>4286</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26525,17 @@
         <v>-111022.15134553</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>4285</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26564,17 @@
         <v>-111022.15134553</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>4289</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26607,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26644,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +26681,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +26718,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +26755,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +26792,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +26829,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +26866,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +26903,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +26940,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +26977,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +27010,17 @@
         <v>-109869.9773814</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>4283</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +27049,17 @@
         <v>-110157.7307814</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>4275</v>
+      </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27092,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27129,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27166,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27049,11 +27199,17 @@
         <v>-101640.4633199</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>4286</v>
+      </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27242,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27279,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27316,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27353,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27390,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27247,11 +27423,17 @@
         <v>-116161.6890199</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>4266</v>
+      </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27280,11 +27462,17 @@
         <v>-123029.3005199</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>4263</v>
+      </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27505,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27542,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27579,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27616,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +27649,17 @@
         <v>-134949.5306199</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>4250</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +27688,17 @@
         <v>-128064.9580199</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>4247</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27731,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27768,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27805,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27842,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +27875,17 @@
         <v>-136442.47141599</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>4240</v>
+      </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +27914,17 @@
         <v>-129015.24401599</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>4258</v>
+      </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +27953,17 @@
         <v>-130104.28151599</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>4264</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27742,11 +27992,17 @@
         <v>-131783.24841599</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>4259</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +28035,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +28072,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28109,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +28142,17 @@
         <v>-127007.61488071</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>4263</v>
+      </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27907,7 +28181,7 @@
         <v>-129005.94273012</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I834" t="n">
         <v>4264</v>
@@ -27915,7 +28189,7 @@
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L834" t="n">
@@ -27946,7 +28220,7 @@
         <v>-128257.78673012</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>4262</v>
@@ -27985,7 +28259,7 @@
         <v>-128257.78673012</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>4266</v>
@@ -28024,7 +28298,7 @@
         <v>-124125.93643012</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>4266</v>
@@ -28063,9 +28337,11 @@
         <v>-121822.68323012</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>4283</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28100,9 +28376,11 @@
         <v>-122033.17563012</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>4290</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28137,9 +28415,11 @@
         <v>-121864.41843012</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>4287</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28174,9 +28454,11 @@
         <v>-117710.06733012</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>4290</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28211,9 +28493,11 @@
         <v>-118772.71703012</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>4292</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28248,9 +28532,11 @@
         <v>-117767.58462733</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>4289</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28285,9 +28571,11 @@
         <v>-118935.65912733</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>4292</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28322,9 +28610,11 @@
         <v>-110744.33732733</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>4289</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28359,9 +28649,11 @@
         <v>-108909.45120112</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>4297</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28396,9 +28688,11 @@
         <v>-110937.88391495</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>4310</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28544,9 +28838,11 @@
         <v>-112339.49216511</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>4301</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28840,9 +29136,11 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>4311</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29099,9 +29397,11 @@
         <v>-85192.19428151999</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>4309</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29136,9 +29436,11 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>4310</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29173,9 +29475,11 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>4306</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29210,9 +29514,11 @@
         <v>-86777.40218151998</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>4306</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29247,9 +29553,11 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4294</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29284,9 +29592,11 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>4299</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29321,9 +29631,11 @@
         <v>-87037.62268151998</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4299</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29395,9 +29707,11 @@
         <v>-87694.45719533997</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4299</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29469,9 +29783,11 @@
         <v>-86040.00594551998</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>4294</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29506,9 +29822,11 @@
         <v>-85404.43123169999</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>4292</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29543,9 +29861,11 @@
         <v>-85291.96543169998</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>4295</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29580,9 +29900,11 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>4304</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29617,9 +29939,11 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>4309</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29654,9 +29978,11 @@
         <v>-84046.42393169997</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>4309</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -29691,9 +30017,11 @@
         <v>-82792.08823169998</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>4301</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -29728,9 +30056,11 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4304</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -29765,9 +30095,11 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>4300</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -29802,9 +30134,11 @@
         <v>-82270.28823169997</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>4300</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29839,9 +30173,11 @@
         <v>-80651.24183169997</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>4315</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -29913,9 +30249,11 @@
         <v>-78267.53238094997</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>4319</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31097,9 +31435,11 @@
         <v>-78301.46302105994</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>4289</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31208,9 +31548,11 @@
         <v>-86147.95952105995</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>4292</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31245,9 +31587,11 @@
         <v>-89527.73052105994</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>4293</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31282,9 +31626,11 @@
         <v>-90750.37932105994</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>4290</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31319,9 +31665,11 @@
         <v>-94810.04352105994</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4285</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31356,9 +31704,11 @@
         <v>-94508.07522105995</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>4284</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31393,9 +31743,11 @@
         <v>-90428.38422105994</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>4287</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31430,9 +31782,11 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>4297</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31652,9 +32006,11 @@
         <v>-97666.23549800993</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>4286</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31689,9 +32045,11 @@
         <v>-95206.05379198994</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>4270</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31726,9 +32084,11 @@
         <v>-98942.25299198994</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>4285</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -31763,9 +32123,11 @@
         <v>-97668.22569198994</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>4275</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -31800,9 +32162,11 @@
         <v>-99231.84789198994</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>4287</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31837,9 +32201,11 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>4275</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -31874,9 +32240,11 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>4282</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -31911,9 +32279,11 @@
         <v>-98832.79179198993</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>4282</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -31948,9 +32318,11 @@
         <v>-94558.33049198994</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>4275</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -31985,9 +32357,11 @@
         <v>-95598.15199198994</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>4277</v>
+      </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32022,9 +32396,11 @@
         <v>-94854.89129198994</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4274</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32059,9 +32435,11 @@
         <v>-94974.94999198994</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>4280</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32096,9 +32474,11 @@
         <v>-90183.97899198993</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>4277</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32133,9 +32513,11 @@
         <v>-89203.97899198993</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>4282</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32170,9 +32552,11 @@
         <v>-86327.26419198993</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>4283</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -33317,9 +33701,11 @@
         <v>-78216.61302543995</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>4299</v>
+      </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -35019,9 +35405,11 @@
         <v>-50670.41540903995</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>4351</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35093,9 +35481,11 @@
         <v>-55052.36930903995</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>4355</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35167,9 +35557,11 @@
         <v>-52203.82030903995</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>4343</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35241,9 +35633,11 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>4341</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35278,9 +35672,11 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>4339</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35315,9 +35711,11 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>4339</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35352,9 +35750,11 @@
         <v>-57872.51589396995</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>4339</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -37535,9 +37935,11 @@
         <v>-63275.09318588993</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>4321</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
@@ -40717,9 +41119,11 @@
         <v>-82711.91891941987</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>4336</v>
+      </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40754,9 +41158,11 @@
         <v>-80213.20451941987</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>4343</v>
+      </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40791,9 +41197,11 @@
         <v>-72415.22151941987</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>4352</v>
+      </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
@@ -42382,16 +42790,18 @@
         <v>-7039.785295969843</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1225" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1225" t="n">
+        <v>1</v>
+      </c>
       <c r="M1225" t="inlineStr"/>
     </row>
     <row r="1226">
@@ -42417,11 +42827,15 @@
         <v>-17243.47009596985</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42450,11 +42864,15 @@
         <v>-15348.25029596984</v>
       </c>
       <c r="H1227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42483,11 +42901,15 @@
         <v>-19098.88219596984</v>
       </c>
       <c r="H1228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42516,11 +42938,15 @@
         <v>-23512.88919596984</v>
       </c>
       <c r="H1229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42549,11 +42975,15 @@
         <v>-32114.84289596984</v>
       </c>
       <c r="H1230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42582,11 +43012,15 @@
         <v>-35119.85179596984</v>
       </c>
       <c r="H1231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42619,7 +43053,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42652,7 +43090,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42685,7 +43127,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42718,7 +43164,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42751,7 +43201,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42784,7 +43238,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42817,7 +43275,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42850,7 +43312,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42883,7 +43349,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42916,7 +43386,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42949,7 +43423,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42982,7 +43460,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43015,7 +43497,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43048,7 +43534,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43081,7 +43571,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43114,7 +43608,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43147,7 +43645,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43180,7 +43682,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43213,7 +43719,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43246,7 +43756,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43279,7 +43793,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43312,7 +43830,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43345,7 +43867,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43378,7 +43904,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43411,7 +43941,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43444,7 +43978,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43477,7 +44015,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43510,7 +44052,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43543,7 +44089,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43576,7 +44126,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43609,7 +44163,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43642,7 +44200,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43675,7 +44237,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43708,7 +44274,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43741,7 +44311,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43774,7 +44348,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -43807,7 +44385,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -43840,7 +44422,11 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -43873,7 +44459,11 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -43906,7 +44496,11 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -43939,7 +44533,11 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -43972,7 +44570,11 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -44005,7 +44607,11 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -44038,7 +44644,11 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -44071,7 +44681,11 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -44104,7 +44718,11 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -44137,7 +44755,11 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -44170,7 +44792,11 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -44203,7 +44829,11 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -44236,7 +44866,11 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -44269,7 +44903,11 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -44302,13 +44940,17 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
       <c r="M1283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest EOS.xlsx
+++ b/BackTest/2020-01-19 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16840.64005258999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>15072.82095258999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>15524.08138311999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>18801.21478311999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14597.86168311999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>17260.06469803999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>29871.20022395999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>26971.42000084999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>29909.81125015999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24577.97545015999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>25728.35995015999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>24766.73035015999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>25410.26055015999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>19082.27935015999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>24612.67185015999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>24614.87185015999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>23375.11555015999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>22300.49225015999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>25882.42175015999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>27249.17465015999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>34441.64265015999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26857.42545015999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>39587.20890581999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>46504.18980581999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>57404.69240581999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>55316.15350582</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>58365.49950581999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>50923.88900581999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>48976.89130581999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>49431.18010581999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>48133.06310581999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>44682.85305255999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>39537.37715256</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>34203.02245255999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>44032.60945255999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>39520.36409237</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>64267.06359236999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>58066.46559236999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>50458.65669236999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>46741.04999236999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>54013.02379236999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>54013.02379236999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>57077.00939236999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>50182.80589236999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>58132.77169236998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>57622.29339236998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>52988.63238368998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>49346.72288368999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>204740.80244877</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>203823.66464877</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>191568.70564877</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>187906.94264877</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>178344.89944877</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>177341.20794877</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>175237.76274877</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>175860.14564877</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>176741.31474877</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>176221.95684877</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>175663.14434877</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>182615.01294877</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>179633.69634877</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>176965.22304877</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>171345.44134877</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>174218.36414877</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>175058.05254877</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>174996.16904877</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>176776.75334877</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>178423.69604877</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>179742.69654877</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>187647.75204877</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>188522.85404877</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>186850.34964877</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>188951.25329231</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>188182.17566332</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>186440.84376332</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>187111.15506332</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>186870.63506332</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>185010.00826332</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>183676.50526332</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>178145.24126332</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>178818.34506332</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>180412.45876332</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>176869.32066332</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>176984.67386332</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>175529.11006332</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>174455.73866332</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>151170.22226332</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>119633.19428491</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>145900.7993065</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>123984.7962065</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>104186.0127065</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>115690.7756065</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>94878.2262065</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>83533.47124593999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>61851.71575040999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>74194.07735040999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>58393.84865040999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>59059.30655040999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>56914.26175040999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>51259.20995040999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>58360.95335040999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>60474.16978490999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>67448.35648490999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>25520.37189298001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-11055.25358183999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3114.608045579987</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-6110.062945579987</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-6952.650467549987</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-7324.426967549987</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-8099.474867549987</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-7929.992267549987</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-8003.113367549987</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-55146.93436754999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-51851.61836754999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-35674.81924613999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1992.202646029988</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>27148.32852769001</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>35120.88355033001</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>35120.88355033001</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>17107.98505033003</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>17107.98505033003</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>15461.73095033003</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>22275.60985033003</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -26026,17 +26026,11 @@
         <v>-90372.55889344</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>4282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26065,17 +26059,11 @@
         <v>-95877.81979343999</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>4281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26112,7 +26100,7 @@
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L779" t="n">
@@ -26291,11 +26279,9 @@
         <v>-115768.9438518</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>4284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26330,11 +26316,9 @@
         <v>-112325.95193146</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>4293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26369,11 +26353,9 @@
         <v>-116670.37853146</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>4305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26408,11 +26390,9 @@
         <v>-119561.16803146</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>4290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26447,11 +26427,9 @@
         <v>-117623.11303146</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>4285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26486,11 +26464,9 @@
         <v>-131660.03024553</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>4286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26525,11 +26501,9 @@
         <v>-111022.15134553</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>4285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -26564,11 +26538,9 @@
         <v>-111022.15134553</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>4289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27010,11 +26982,9 @@
         <v>-109869.9773814</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>4283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27049,11 +27019,9 @@
         <v>-110157.7307814</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>4275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27199,11 +27167,9 @@
         <v>-101640.4633199</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>4286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27423,11 +27389,9 @@
         <v>-116161.6890199</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>4266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27462,11 +27426,9 @@
         <v>-123029.3005199</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>4263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27727,9 +27689,11 @@
         <v>-154448.3046199</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>4251</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -27801,9 +27765,11 @@
         <v>-141920.17186329</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>4215</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -27914,11 +27880,9 @@
         <v>-129015.24401599</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>4258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27992,11 +27956,9 @@
         <v>-131783.24841599</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>4259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28105,9 +28067,11 @@
         <v>-128925.77818071</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>4260</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28454,11 +28418,9 @@
         <v>-117710.06733012</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>4290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28493,11 +28455,9 @@
         <v>-118772.71703012</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>4292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28532,11 +28492,9 @@
         <v>-117767.58462733</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>4289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28571,11 +28529,9 @@
         <v>-118935.65912733</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>4292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28610,11 +28566,9 @@
         <v>-110744.33732733</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>4289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28649,11 +28603,9 @@
         <v>-108909.45120112</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>4297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28688,11 +28640,9 @@
         <v>-110937.88391495</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>4310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28838,11 +28788,9 @@
         <v>-112339.49216511</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>4301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -29136,11 +29084,9 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>4311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29397,11 +29343,9 @@
         <v>-85192.19428151999</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>4309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29436,11 +29380,9 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>4310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29475,11 +29417,9 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>4306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29514,11 +29454,9 @@
         <v>-86777.40218151998</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>4306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29553,11 +29491,9 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>4294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29592,11 +29528,9 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>4299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29631,11 +29565,9 @@
         <v>-87037.62268151998</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>4299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29707,11 +29639,9 @@
         <v>-87694.45719533997</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>4299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29783,11 +29713,9 @@
         <v>-86040.00594551998</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>4294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29822,11 +29750,9 @@
         <v>-85404.43123169999</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>4292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29861,11 +29787,9 @@
         <v>-85291.96543169998</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>4295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29900,11 +29824,9 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>4304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29939,11 +29861,9 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>4309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29978,11 +29898,9 @@
         <v>-84046.42393169997</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>4309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30017,11 +29935,9 @@
         <v>-82792.08823169998</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>4301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30056,11 +29972,9 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>4304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30095,11 +30009,9 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>4300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30134,11 +30046,9 @@
         <v>-82270.28823169997</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>4300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30173,11 +30083,9 @@
         <v>-80651.24183169997</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>4315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30249,11 +30157,9 @@
         <v>-78267.53238094997</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>4319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31324,9 +31230,11 @@
         <v>-80569.87302105995</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>4295</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31361,9 +31269,11 @@
         <v>-80871.97222105994</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4300</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31398,9 +31308,11 @@
         <v>-81527.37762105995</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>4293</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31474,9 +31386,11 @@
         <v>-81215.65172105994</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>4294</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31821,9 +31735,11 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>4290</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31858,9 +31774,11 @@
         <v>-87601.65392105994</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>4290</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -31895,9 +31813,11 @@
         <v>-88741.54932105994</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>4306</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -31932,9 +31852,11 @@
         <v>-93465.18062105993</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>4290</v>
+      </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -31969,9 +31891,11 @@
         <v>-92247.65919800993</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>4284</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -32591,9 +32515,11 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>4287</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32628,9 +32554,11 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>4296</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32665,9 +32593,11 @@
         <v>-86433.86659198994</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>4296</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32702,9 +32632,11 @@
         <v>-85033.34209198994</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>4295</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32739,9 +32671,11 @@
         <v>-86114.01829198994</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>4304</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32776,9 +32710,11 @@
         <v>-89370.32057839994</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>4288</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32813,9 +32749,11 @@
         <v>-89037.85427839994</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>4286</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32850,9 +32788,11 @@
         <v>-90217.36590329994</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>4298</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -33701,11 +33641,9 @@
         <v>-78216.61302543995</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>4299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -34036,18 +33974,16 @@
         <v>-71174.23452543994</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
+      <c r="L989" t="inlineStr"/>
       <c r="M989" t="inlineStr"/>
     </row>
     <row r="990">
@@ -34073,15 +34009,11 @@
         <v>-73122.69502543994</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34110,15 +34042,11 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34147,15 +34075,11 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34184,15 +34108,11 @@
         <v>-41488.02682543994</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34221,15 +34141,11 @@
         <v>-38360.27742405994</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34258,15 +34174,11 @@
         <v>-29361.23512405994</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34295,15 +34207,11 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34332,15 +34240,11 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34369,15 +34273,11 @@
         <v>-33416.12212405994</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34406,15 +34306,11 @@
         <v>-36345.42602405994</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34443,15 +34339,11 @@
         <v>-32493.25402405994</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34480,15 +34372,11 @@
         <v>-35431.51322405994</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34517,15 +34405,11 @@
         <v>-35430.01310987994</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34554,15 +34438,11 @@
         <v>-40174.26150987994</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34591,15 +34471,11 @@
         <v>-41943.88670987995</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34628,15 +34504,11 @@
         <v>-42437.17060987995</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34665,15 +34537,11 @@
         <v>-37660.35530987995</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34702,15 +34570,11 @@
         <v>-37038.67440903994</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34739,15 +34603,11 @@
         <v>-37380.15790903995</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34776,15 +34636,11 @@
         <v>-39568.12530903995</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34813,15 +34669,11 @@
         <v>-39558.60390903995</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34850,15 +34702,11 @@
         <v>-41762.24080903995</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34887,15 +34735,11 @@
         <v>-42295.46780903995</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34924,15 +34768,11 @@
         <v>-47807.56440903994</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34961,15 +34801,11 @@
         <v>-43956.72870903994</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35002,11 +34838,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35039,11 +34871,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35076,11 +34904,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35113,11 +34937,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35146,15 +34966,11 @@
         <v>-42443.10430903995</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35183,15 +34999,11 @@
         <v>-41589.31490903995</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35220,15 +35032,11 @@
         <v>-41543.31490903995</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35257,15 +35065,11 @@
         <v>-47445.56900903994</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35294,15 +35098,11 @@
         <v>-47597.31580903994</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35331,15 +35131,11 @@
         <v>-47725.82700903995</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35368,15 +35164,11 @@
         <v>-51098.70190903995</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35405,17 +35197,11 @@
         <v>-50670.41540903995</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>4351</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35444,15 +35230,11 @@
         <v>-51534.66360903995</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35481,17 +35263,11 @@
         <v>-55052.36930903995</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>4355</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35520,15 +35296,11 @@
         <v>-55147.54150903995</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35557,17 +35329,11 @@
         <v>-52203.82030903995</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>4343</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35596,15 +35362,11 @@
         <v>-53912.09970903995</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35633,17 +35395,11 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>4341</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35672,17 +35428,11 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>4339</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35711,17 +35461,11 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>4339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35750,17 +35494,11 @@
         <v>-57872.51589396995</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>4339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35793,11 +35531,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35830,11 +35564,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35867,11 +35597,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35904,11 +35630,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35941,11 +35663,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35978,11 +35696,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36015,11 +35729,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36052,11 +35762,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36089,11 +35795,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36126,11 +35828,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36163,11 +35861,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36200,11 +35894,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36237,11 +35927,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36274,11 +35960,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36311,11 +35993,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36348,11 +36026,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36385,11 +36059,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36422,11 +36092,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36459,11 +36125,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36496,11 +36158,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36533,11 +36191,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36570,11 +36224,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36607,11 +36257,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36644,11 +36290,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36681,11 +36323,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36718,11 +36356,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36755,11 +36389,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36792,11 +36422,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36829,11 +36455,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36866,11 +36488,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36903,11 +36521,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36940,11 +36554,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36977,11 +36587,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37014,11 +36620,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37051,11 +36653,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37088,11 +36686,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37125,11 +36719,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37162,11 +36752,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37199,11 +36785,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37236,11 +36818,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37273,11 +36851,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37310,11 +36884,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37347,11 +36917,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37384,11 +36950,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37421,11 +36983,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37458,11 +37016,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37495,11 +37049,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37532,11 +37082,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37569,11 +37115,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37606,11 +37148,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37643,11 +37181,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37680,11 +37214,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37717,11 +37247,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37754,11 +37280,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37791,11 +37313,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37828,11 +37346,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37865,11 +37379,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37902,11 +37412,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37935,17 +37441,11 @@
         <v>-63275.09318588993</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>4321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37978,11 +37478,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -38015,11 +37511,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -38052,11 +37544,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -38089,11 +37577,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -38126,11 +37610,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -38163,11 +37643,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -38200,11 +37676,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38237,11 +37709,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38274,11 +37742,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38307,13 +37771,15 @@
         <v>-85423.85678588993</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>4305</v>
+      </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1104" t="n">
@@ -38344,9 +37810,11 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>4314</v>
+      </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
@@ -38381,9 +37849,11 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>4305</v>
+      </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
@@ -38455,9 +37925,11 @@
         <v>-85478.93118588993</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>4306</v>
+      </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
@@ -38529,9 +38001,11 @@
         <v>-92869.82998588993</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>4300</v>
+      </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -38566,9 +38040,11 @@
         <v>-91868.38584499992</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>4300</v>
+      </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -38603,9 +38079,11 @@
         <v>-91695.48484499993</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>4310</v>
+      </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38640,9 +38118,11 @@
         <v>-90530.53814499993</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>4311</v>
+      </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
@@ -38677,9 +38157,11 @@
         <v>-90630.53814499993</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>4320</v>
+      </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
@@ -38714,9 +38196,11 @@
         <v>-90640.53814499993</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>4317</v>
+      </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
@@ -38751,9 +38235,11 @@
         <v>-90580.15264499992</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>4315</v>
+      </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -39306,9 +38792,11 @@
         <v>-91834.06953018988</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>4299</v>
+      </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -39343,9 +38831,11 @@
         <v>-91857.92073018989</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>4299</v>
+      </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -39380,9 +38870,11 @@
         <v>-91405.92073018989</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>4297</v>
+      </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -39417,9 +38909,11 @@
         <v>-91394.92073018989</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>4301</v>
+      </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
@@ -39454,9 +38948,11 @@
         <v>-94524.95593018988</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>4306</v>
+      </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
@@ -39491,9 +38987,11 @@
         <v>-93817.38583018989</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>4304</v>
+      </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
@@ -39528,9 +39026,11 @@
         <v>-95196.29353018988</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>4313</v>
+      </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
@@ -39565,9 +39065,11 @@
         <v>-95957.26703018988</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>4301</v>
+      </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -39602,9 +39104,11 @@
         <v>-95464.50123018988</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>4297</v>
+      </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -41082,18 +40586,16 @@
         <v>-82880.00421941988</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1179" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1179" t="inlineStr"/>
       <c r="M1179" t="inlineStr"/>
     </row>
     <row r="1180">
@@ -41119,17 +40621,11 @@
         <v>-82711.91891941987</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>4336</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -41158,17 +40654,11 @@
         <v>-80213.20451941987</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>4343</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -41197,17 +40687,11 @@
         <v>-72415.22151941987</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>4352</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -41236,15 +40720,11 @@
         <v>-73865.03131941987</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -41273,15 +40753,11 @@
         <v>-73499.77501941987</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -41310,15 +40786,11 @@
         <v>-69255.67931941987</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -41347,15 +40819,11 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -41384,15 +40852,11 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -41421,15 +40885,11 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -41458,15 +40918,11 @@
         <v>-67864.67241941986</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -41495,15 +40951,11 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -41532,15 +40984,11 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -41569,15 +41017,11 @@
         <v>-63975.79641941986</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -41606,15 +41050,11 @@
         <v>-63763.41971941986</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -41643,15 +41083,11 @@
         <v>-57734.73571941986</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -41680,15 +41116,11 @@
         <v>-57759.73561941986</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -41717,15 +41149,11 @@
         <v>-57612.84621941986</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -41754,15 +41182,11 @@
         <v>-57972.51751941986</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -41791,15 +41215,11 @@
         <v>-58683.68561941986</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -41828,15 +41248,11 @@
         <v>-50620.51781941986</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -41869,11 +41285,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -41906,11 +41318,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41943,11 +41351,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41980,11 +41384,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -42017,11 +41417,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -42054,11 +41450,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -42091,11 +41483,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -42128,11 +41516,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -42165,11 +41549,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -42202,11 +41582,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -42239,11 +41615,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -42276,11 +41648,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -42313,11 +41681,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -42346,15 +41710,11 @@
         <v>-53040.89770701985</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -42383,15 +41743,11 @@
         <v>-52155.47940701985</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -42420,15 +41776,11 @@
         <v>-48403.55420701985</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -42457,15 +41809,11 @@
         <v>-45694.35450701985</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -42494,15 +41842,11 @@
         <v>-49673.61900701985</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -42531,15 +41875,11 @@
         <v>-37704.61280701985</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -42568,15 +41908,11 @@
         <v>-21767.39950701985</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -42605,15 +41941,11 @@
         <v>-36322.46289596985</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -42642,15 +41974,11 @@
         <v>-26197.65999596984</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -42679,15 +42007,11 @@
         <v>-20947.68489596984</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -42716,15 +42040,11 @@
         <v>-27289.56239596984</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42753,15 +42073,11 @@
         <v>-20365.84459596984</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42790,15 +42106,11 @@
         <v>-7039.785295969843</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42831,11 +42143,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42868,11 +42176,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42905,11 +42209,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42942,11 +42242,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42979,11 +42275,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -43016,11 +42308,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -43053,11 +42341,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -43090,11 +42374,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -43127,11 +42407,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -43164,11 +42440,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -43201,11 +42473,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -43238,11 +42506,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -43275,11 +42539,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -43312,11 +42572,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -43349,11 +42605,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -43386,11 +42638,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -43423,11 +42671,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -43460,11 +42704,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43497,11 +42737,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43534,11 +42770,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43571,11 +42803,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43608,11 +42836,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43645,11 +42869,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43682,11 +42902,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43719,11 +42935,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43756,11 +42968,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43793,11 +43001,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43830,11 +43034,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43867,11 +43067,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43904,11 +43100,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43941,11 +43133,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43978,11 +43166,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -44015,11 +43199,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -44052,11 +43232,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -44089,11 +43265,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -44126,11 +43298,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -44163,11 +43331,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -44200,11 +43364,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -44237,11 +43397,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -44274,11 +43430,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -44311,11 +43463,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -44344,15 +43492,11 @@
         <v>-13421.72049331984</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -44381,15 +43525,11 @@
         <v>-9384.55119331984</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -44418,15 +43558,11 @@
         <v>-10578.67209331984</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -44455,15 +43591,11 @@
         <v>-13406.01649331984</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -44492,15 +43624,11 @@
         <v>-13273.98478803984</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -44533,11 +43661,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -44570,11 +43694,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -44607,11 +43727,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -44644,11 +43760,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -44681,11 +43793,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -44718,11 +43826,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -44755,11 +43859,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -44792,11 +43892,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -44829,11 +43925,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -44866,11 +43958,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -44903,11 +43991,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -44940,17 +44024,13 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
       <c r="M1283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest EOS.xlsx
+++ b/BackTest/2020-01-19 BackTest EOS.xlsx
@@ -451,7 +451,7 @@
         <v>16840.64005258999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>15072.82095258999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>15524.08138311999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>18801.21478311999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14597.86168311999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>17260.06469803999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>29871.20022395999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>26971.42000084999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>29909.81125015999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24577.97545015999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>25728.35995015999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>24766.73035015999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>25410.26055015999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>19082.27935015999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>24612.67185015999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>24614.87185015999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>23375.11555015999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>22300.49225015999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>25882.42175015999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>27249.17465015999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>34441.64265015999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26857.42545015999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>39587.20890581999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>46504.18980581999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>57404.69240581999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>55316.15350582</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>58365.49950581999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>50923.88900581999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>48976.89130581999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>49431.18010581999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>48133.06310581999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>44682.85305255999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>39537.37715256</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>34203.02245255999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>44032.60945255999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>193364.54124877</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>196114.36914877</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>197209.91784877</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>204740.80244877</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>203823.66464877</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>191568.70564877</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>187906.94264877</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>178344.89944877</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>177341.20794877</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>175237.76274877</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>175860.14564877</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>176741.31474877</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>176221.95684877</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>175663.14434877</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>182615.01294877</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>179633.69634877</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>176965.22304877</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>171345.44134877</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>174218.36414877</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>175058.05254877</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>174996.16904877</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>176776.75334877</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>178423.69604877</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>179742.69654877</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>187647.75204877</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>188522.85404877</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>186850.34964877</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>193805.63084877</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>192766.21594877</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>192578.96334877</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>193170.39884877</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>194065.53424877</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>194353.13125383</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>191644.74699231</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>190293.13519231</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>189626.84329231</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>184701.4459923099</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>25520.37189298001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-11055.25358183999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3114.608045579987</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-6110.062945579987</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-6952.650467549987</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-7324.426967549987</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-8099.474867549987</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-7929.992267549987</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-8003.113367549987</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-55146.93436754999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-51851.61836754999</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-35674.81924613999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1992.202646029988</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -26092,17 +26092,11 @@
         <v>-153514.5570518</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>4263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26135,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26172,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26209,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26246,11 +26228,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26283,11 +26261,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26320,11 +26294,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26357,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26394,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26431,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26468,11 +26426,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26505,11 +26459,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26542,11 +26492,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26579,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26616,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26690,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26727,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26764,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26801,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26838,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26875,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +26822,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26949,11 +26855,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26986,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27023,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27060,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27097,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27134,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27171,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27208,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27245,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27282,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27319,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27356,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27393,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27430,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27467,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27504,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27541,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27578,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27619,7 +27453,7 @@
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L820" t="n">
@@ -27689,11 +27523,9 @@
         <v>-154448.3046199</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>4251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -27765,11 +27597,9 @@
         <v>-141920.17186329</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>4215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -27804,9 +27634,11 @@
         <v>-141159.26311599</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>4217</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -27880,9 +27712,11 @@
         <v>-129015.24401599</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>4258</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27956,9 +27790,11 @@
         <v>-131783.24841599</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>4259</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -27993,9 +27829,11 @@
         <v>-131548.81301599</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>4255</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28067,11 +27905,9 @@
         <v>-128925.77818071</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>4260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28106,11 +27942,9 @@
         <v>-127007.61488071</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>4263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28418,9 +28252,11 @@
         <v>-117710.06733012</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>4290</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28455,9 +28291,11 @@
         <v>-118772.71703012</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>4292</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28492,9 +28330,11 @@
         <v>-117767.58462733</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>4289</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28529,9 +28369,11 @@
         <v>-118935.65912733</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>4292</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28566,9 +28408,11 @@
         <v>-110744.33732733</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>4289</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28603,9 +28447,11 @@
         <v>-108909.45120112</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>4297</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28640,9 +28486,11 @@
         <v>-110937.88391495</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>4310</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28677,9 +28525,11 @@
         <v>-104175.81297189</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>4307</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28714,9 +28564,11 @@
         <v>-111040.75657189</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>4310</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28751,9 +28603,11 @@
         <v>-112358.49216511</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>4304</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28788,9 +28642,11 @@
         <v>-112339.49216511</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>4301</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28825,9 +28681,11 @@
         <v>-111911.81036511</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>4303</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28862,9 +28720,11 @@
         <v>-113166.24536511</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>4310</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28899,9 +28759,11 @@
         <v>-111535.26526511</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>4302</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -28936,9 +28798,11 @@
         <v>-107805.94016511</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>4305</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28973,9 +28837,11 @@
         <v>-107837.36796511</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>4310</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29010,9 +28876,11 @@
         <v>-104576.22487961</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>4305</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29047,9 +28915,11 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>4306</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29084,9 +28954,11 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>4311</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29121,9 +28993,11 @@
         <v>-106903.25967961</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>4311</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29158,9 +29032,11 @@
         <v>-104452.59768152</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>4306</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29195,9 +29071,11 @@
         <v>-101535.84928152</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>4307</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29232,9 +29110,11 @@
         <v>-85404.67868151997</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>4314</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29269,9 +29149,11 @@
         <v>-87599.05408151998</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>4319</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29306,9 +29188,11 @@
         <v>-87404.39788151998</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>4306</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29343,9 +29227,11 @@
         <v>-85192.19428151999</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>4309</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29380,9 +29266,11 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>4310</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29417,9 +29305,11 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>4306</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29454,9 +29344,11 @@
         <v>-86777.40218151998</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>4306</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29491,9 +29383,11 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4294</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29528,9 +29422,11 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>4299</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29565,9 +29461,11 @@
         <v>-87037.62268151998</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4299</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29602,9 +29500,11 @@
         <v>-86934.10209533997</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>4292</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29639,9 +29539,11 @@
         <v>-87694.45719533997</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4299</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29676,9 +29578,11 @@
         <v>-85300.32724551998</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>4292</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -29713,9 +29617,11 @@
         <v>-86040.00594551998</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>4294</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29750,9 +29656,11 @@
         <v>-85404.43123169999</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>4292</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29787,9 +29695,11 @@
         <v>-85291.96543169998</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>4295</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29824,9 +29734,11 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>4304</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29861,9 +29773,11 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>4309</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29898,9 +29812,11 @@
         <v>-84046.42393169997</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>4309</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -29935,9 +29851,11 @@
         <v>-82792.08823169998</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>4301</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -29972,9 +29890,11 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4304</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30009,9 +29929,11 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>4300</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30046,9 +29968,11 @@
         <v>-82270.28823169997</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>4300</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30083,9 +30007,11 @@
         <v>-80651.24183169997</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>4315</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31230,11 +31156,9 @@
         <v>-80569.87302105995</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>4295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31269,11 +31193,9 @@
         <v>-80871.97222105994</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>4300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31308,11 +31230,9 @@
         <v>-81527.37762105995</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>4293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31347,11 +31267,9 @@
         <v>-78301.46302105994</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>4289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31386,11 +31304,9 @@
         <v>-81215.65172105994</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>4294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31462,11 +31378,9 @@
         <v>-86147.95952105995</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>4292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31501,11 +31415,9 @@
         <v>-89527.73052105994</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>4293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31540,11 +31452,9 @@
         <v>-90750.37932105994</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>4290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31579,11 +31489,9 @@
         <v>-94810.04352105994</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>4285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31618,11 +31526,9 @@
         <v>-94508.07522105995</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>4284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31657,11 +31563,9 @@
         <v>-90428.38422105994</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
-        <v>4287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31696,11 +31600,9 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>4297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31735,11 +31637,9 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
-      </c>
-      <c r="I930" t="n">
-        <v>4290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31774,11 +31674,9 @@
         <v>-87601.65392105994</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>4290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -31813,11 +31711,9 @@
         <v>-88741.54932105994</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>4306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -31852,11 +31748,9 @@
         <v>-93465.18062105993</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>4290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -31891,11 +31785,9 @@
         <v>-92247.65919800993</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>4284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -31930,11 +31822,9 @@
         <v>-97666.23549800993</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>4286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31969,11 +31859,9 @@
         <v>-95206.05379198994</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>4270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -32008,11 +31896,9 @@
         <v>-98942.25299198994</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>4285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -32047,11 +31933,9 @@
         <v>-97668.22569198994</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
-      </c>
-      <c r="I938" t="n">
-        <v>4275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -32086,11 +31970,9 @@
         <v>-99231.84789198994</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
-      </c>
-      <c r="I939" t="n">
-        <v>4287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -32125,11 +32007,9 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
-      </c>
-      <c r="I940" t="n">
-        <v>4275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32164,11 +32044,9 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
-      </c>
-      <c r="I941" t="n">
-        <v>4282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32203,11 +32081,9 @@
         <v>-98832.79179198993</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>4282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32242,11 +32118,9 @@
         <v>-94558.33049198994</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>4275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32281,11 +32155,9 @@
         <v>-95598.15199198994</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>4277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32320,11 +32192,9 @@
         <v>-94854.89129198994</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>4274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32359,11 +32229,9 @@
         <v>-94974.94999198994</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>4280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32398,11 +32266,9 @@
         <v>-90183.97899198993</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>4277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32437,11 +32303,9 @@
         <v>-89203.97899198993</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>4282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32476,11 +32340,9 @@
         <v>-86327.26419198993</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
-      </c>
-      <c r="I949" t="n">
-        <v>4283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -32515,11 +32377,9 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
-      </c>
-      <c r="I950" t="n">
-        <v>4287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32554,11 +32414,9 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>4296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32593,11 +32451,9 @@
         <v>-86433.86659198994</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
-      </c>
-      <c r="I952" t="n">
-        <v>4296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32632,11 +32488,9 @@
         <v>-85033.34209198994</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>4295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32671,11 +32525,9 @@
         <v>-86114.01829198994</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>4304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32710,11 +32562,9 @@
         <v>-89370.32057839994</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>4288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32749,11 +32599,9 @@
         <v>-89037.85427839994</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>4286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32788,11 +32636,9 @@
         <v>-90217.36590329994</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
-      </c>
-      <c r="I957" t="n">
-        <v>4298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -33974,16 +33820,18 @@
         <v>-71174.23452543994</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L989" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
       <c r="M989" t="inlineStr"/>
     </row>
     <row r="990">
@@ -34009,11 +33857,15 @@
         <v>-73122.69502543994</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34042,11 +33894,15 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34075,11 +33931,15 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34108,11 +33968,15 @@
         <v>-41488.02682543994</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34141,11 +34005,15 @@
         <v>-38360.27742405994</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34174,11 +34042,15 @@
         <v>-29361.23512405994</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34207,11 +34079,15 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34240,11 +34116,15 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34273,11 +34153,15 @@
         <v>-33416.12212405994</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34306,11 +34190,15 @@
         <v>-36345.42602405994</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34339,11 +34227,15 @@
         <v>-32493.25402405994</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34372,11 +34264,15 @@
         <v>-35431.51322405994</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34405,11 +34301,15 @@
         <v>-35430.01310987994</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34438,11 +34338,15 @@
         <v>-40174.26150987994</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34471,11 +34375,15 @@
         <v>-41943.88670987995</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34504,11 +34412,15 @@
         <v>-42437.17060987995</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34537,11 +34449,15 @@
         <v>-37660.35530987995</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34570,11 +34486,15 @@
         <v>-37038.67440903994</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34603,11 +34523,15 @@
         <v>-37380.15790903995</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34636,11 +34560,15 @@
         <v>-39568.12530903995</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34669,11 +34597,15 @@
         <v>-39558.60390903995</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34702,11 +34634,15 @@
         <v>-41762.24080903995</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34735,11 +34671,15 @@
         <v>-42295.46780903995</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34768,11 +34708,15 @@
         <v>-47807.56440903994</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34801,11 +34745,15 @@
         <v>-43956.72870903994</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34838,7 +34786,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34871,7 +34823,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34904,7 +34860,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34937,7 +34897,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34966,11 +34930,15 @@
         <v>-42443.10430903995</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34999,11 +34967,15 @@
         <v>-41589.31490903995</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35032,11 +35004,15 @@
         <v>-41543.31490903995</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35065,11 +35041,15 @@
         <v>-47445.56900903994</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35098,11 +35078,15 @@
         <v>-47597.31580903994</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35131,11 +35115,15 @@
         <v>-47725.82700903995</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35164,11 +35152,15 @@
         <v>-51098.70190903995</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35197,11 +35189,15 @@
         <v>-50670.41540903995</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35230,11 +35226,15 @@
         <v>-51534.66360903995</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35263,11 +35263,15 @@
         <v>-55052.36930903995</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35296,11 +35300,15 @@
         <v>-55147.54150903995</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35329,11 +35337,15 @@
         <v>-52203.82030903995</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35362,11 +35374,15 @@
         <v>-53912.09970903995</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35395,11 +35411,15 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35428,11 +35448,15 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35465,7 +35489,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35498,7 +35526,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35531,7 +35563,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35564,7 +35600,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35597,7 +35637,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35630,7 +35674,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35663,7 +35711,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35696,7 +35748,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35729,7 +35785,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35762,7 +35822,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35795,7 +35859,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35828,7 +35896,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35861,7 +35933,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35894,7 +35970,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35927,7 +36007,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35960,7 +36044,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35993,7 +36081,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36026,7 +36118,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36059,7 +36155,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36092,7 +36192,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36125,7 +36229,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36158,7 +36266,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36191,7 +36303,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36224,7 +36340,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36257,7 +36377,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36290,7 +36414,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36323,7 +36451,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36356,7 +36488,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36389,7 +36525,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36422,7 +36562,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36455,7 +36599,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36488,7 +36636,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36521,7 +36673,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36554,7 +36710,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36587,7 +36747,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36620,7 +36784,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36653,7 +36821,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36686,7 +36858,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36719,7 +36895,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36752,7 +36932,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36785,7 +36969,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36818,7 +37006,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36851,7 +37043,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36884,7 +37080,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36917,7 +37117,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36950,7 +37154,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36983,7 +37191,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37016,7 +37228,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37049,7 +37265,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37082,7 +37302,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37115,7 +37339,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37148,7 +37376,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37181,7 +37413,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37214,7 +37450,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37247,7 +37487,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37280,7 +37524,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37313,7 +37561,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37346,7 +37598,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37379,7 +37635,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37412,7 +37672,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37445,7 +37709,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37478,7 +37746,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37511,7 +37783,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37544,7 +37820,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37577,7 +37857,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37610,7 +37894,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37643,7 +37931,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37676,7 +37968,11 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37709,7 +38005,11 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37742,7 +38042,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37771,15 +38075,13 @@
         <v>-85423.85678588993</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>4305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1104" t="n">
@@ -37810,11 +38112,9 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>4314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37849,11 +38149,9 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>4305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37925,11 +38223,9 @@
         <v>-85478.93118588993</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>4306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
@@ -38001,11 +38297,9 @@
         <v>-92869.82998588993</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>4300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -38040,11 +38334,9 @@
         <v>-91868.38584499992</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>4300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -38079,11 +38371,9 @@
         <v>-91695.48484499993</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>4310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38118,11 +38408,9 @@
         <v>-90530.53814499993</v>
       </c>
       <c r="H1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>4311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
@@ -38157,11 +38445,9 @@
         <v>-90630.53814499993</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>4320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
@@ -38196,11 +38482,9 @@
         <v>-90640.53814499993</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>4317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
@@ -38235,11 +38519,9 @@
         <v>-90580.15264499992</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>4315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -38792,11 +39074,9 @@
         <v>-91834.06953018988</v>
       </c>
       <c r="H1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>4299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38831,11 +39111,9 @@
         <v>-91857.92073018989</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>4299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38870,11 +39148,9 @@
         <v>-91405.92073018989</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>4297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38909,11 +39185,9 @@
         <v>-91394.92073018989</v>
       </c>
       <c r="H1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1134" t="n">
-        <v>4301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
@@ -38948,11 +39222,9 @@
         <v>-94524.95593018988</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1135" t="n">
-        <v>4306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
@@ -38987,11 +39259,9 @@
         <v>-93817.38583018989</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1136" t="n">
-        <v>4304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
@@ -39026,11 +39296,9 @@
         <v>-95196.29353018988</v>
       </c>
       <c r="H1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>4313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
@@ -39065,11 +39333,9 @@
         <v>-95957.26703018988</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>4301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -39104,11 +39370,9 @@
         <v>-95464.50123018988</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>4297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -40586,16 +40850,18 @@
         <v>-82880.00421941988</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1179" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1179" t="n">
+        <v>1</v>
+      </c>
       <c r="M1179" t="inlineStr"/>
     </row>
     <row r="1180">
@@ -40621,11 +40887,15 @@
         <v>-82711.91891941987</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40654,11 +40924,15 @@
         <v>-80213.20451941987</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40687,11 +40961,15 @@
         <v>-72415.22151941987</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40720,11 +40998,15 @@
         <v>-73865.03131941987</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40753,11 +41035,15 @@
         <v>-73499.77501941987</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40786,11 +41072,15 @@
         <v>-69255.67931941987</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40819,11 +41109,15 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40852,11 +41146,15 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40885,11 +41183,15 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40918,11 +41220,15 @@
         <v>-67864.67241941986</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40951,11 +41257,15 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40984,11 +41294,15 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -41017,11 +41331,15 @@
         <v>-63975.79641941986</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -41050,11 +41368,15 @@
         <v>-63763.41971941986</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -41083,11 +41405,15 @@
         <v>-57734.73571941986</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -41116,11 +41442,15 @@
         <v>-57759.73561941986</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -41149,11 +41479,15 @@
         <v>-57612.84621941986</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -41182,11 +41516,15 @@
         <v>-57972.51751941986</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -41215,11 +41553,15 @@
         <v>-58683.68561941986</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -41248,11 +41590,15 @@
         <v>-50620.51781941986</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -41285,7 +41631,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -41318,7 +41668,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41351,7 +41705,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41384,7 +41742,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41417,7 +41779,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41450,7 +41816,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41483,7 +41853,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41516,7 +41890,11 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41549,7 +41927,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41582,7 +41964,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41615,7 +42001,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41648,7 +42038,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41681,7 +42075,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41710,11 +42108,15 @@
         <v>-53040.89770701985</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41743,11 +42145,15 @@
         <v>-52155.47940701985</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41776,11 +42182,15 @@
         <v>-48403.55420701985</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41809,11 +42219,15 @@
         <v>-45694.35450701985</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41842,11 +42256,15 @@
         <v>-49673.61900701985</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41875,11 +42293,15 @@
         <v>-37704.61280701985</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41908,11 +42330,15 @@
         <v>-21767.39950701985</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41941,11 +42367,15 @@
         <v>-36322.46289596985</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41974,11 +42404,15 @@
         <v>-26197.65999596984</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -42007,11 +42441,15 @@
         <v>-20947.68489596984</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -42040,11 +42478,15 @@
         <v>-27289.56239596984</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42073,11 +42515,15 @@
         <v>-20365.84459596984</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42106,11 +42552,15 @@
         <v>-7039.785295969843</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42143,7 +42593,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42176,7 +42630,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42209,7 +42667,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42242,7 +42704,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42275,7 +42741,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42308,7 +42778,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42341,7 +42815,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42374,7 +42852,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42407,7 +42889,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42440,7 +42926,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42473,7 +42963,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42506,7 +43000,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42539,7 +43037,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42572,7 +43074,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42605,7 +43111,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42638,7 +43148,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42671,7 +43185,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42704,7 +43222,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42737,7 +43259,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42770,7 +43296,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42803,7 +43333,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42836,7 +43370,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42869,7 +43407,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42902,7 +43444,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42935,7 +43481,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42968,7 +43518,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43001,7 +43555,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43034,7 +43592,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43067,7 +43629,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43100,7 +43666,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43133,7 +43703,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43166,7 +43740,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43199,7 +43777,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43232,7 +43814,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43265,7 +43851,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43298,7 +43888,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43331,7 +43925,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43364,7 +43962,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43397,7 +43999,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43430,7 +44036,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43463,7 +44073,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43492,11 +44106,15 @@
         <v>-13421.72049331984</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -43525,11 +44143,15 @@
         <v>-9384.55119331984</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -43558,11 +44180,15 @@
         <v>-10578.67209331984</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -43591,11 +44217,15 @@
         <v>-13406.01649331984</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -43624,11 +44254,15 @@
         <v>-13273.98478803984</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -43661,7 +44295,11 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -43694,7 +44332,11 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -43727,7 +44369,11 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -43760,7 +44406,11 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43793,7 +44443,11 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43826,7 +44480,11 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43859,7 +44517,11 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43892,7 +44554,11 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43925,7 +44591,11 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43958,7 +44628,11 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43991,7 +44665,11 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -44024,7 +44702,11 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
